--- a/portfolios/sml_equity/strategy_entrances_exits/mean_reversion/RSI_entrances.xlsx
+++ b/portfolios/sml_equity/strategy_entrances_exits/mean_reversion/RSI_entrances.xlsx
@@ -1825,7 +1825,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N5">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O5">
         <v>22.91071702127658</v>
@@ -1882,7 +1882,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH5">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI5">
         <v>0.0164026268679168</v>
@@ -2037,7 +2037,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N6">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O6">
         <v>13.31855815602838</v>
@@ -2094,7 +2094,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH6">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI6">
         <v>0.01874799038460693</v>
@@ -2670,7 +2670,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N9">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O9">
         <v>13.14070638297873</v>
@@ -2727,7 +2727,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH9">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI9">
         <v>0.007811425833287981</v>
@@ -4614,10 +4614,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M18">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N18">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O18">
         <v>13.5726685714286</v>
@@ -4674,7 +4674,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH18">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI18">
         <v>0.01377227782086468</v>
@@ -5044,10 +5044,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M20">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N20">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O20">
         <v>22.89386499999999</v>
@@ -5104,7 +5104,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH20">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI20">
         <v>0.01850111854925377</v>
@@ -5265,7 +5265,7 @@
         <v>933.76</v>
       </c>
       <c r="N21">
-        <v>835.1386542857173</v>
+        <v>835.13630214286</v>
       </c>
       <c r="O21">
         <v>56.5645357142857</v>
@@ -5322,7 +5322,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH21">
-        <v>0.1180897868972814</v>
+        <v>0.1180929359723477</v>
       </c>
       <c r="AI21">
         <v>0.03524744002044663</v>
@@ -5698,10 +5698,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M23">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N23">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O23">
         <v>17.30096857142856</v>
@@ -5758,7 +5758,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH23">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI23">
         <v>0.02040792249113568</v>
@@ -6134,7 +6134,7 @@
         <v>933.76</v>
       </c>
       <c r="N25">
-        <v>835.1386542857173</v>
+        <v>835.13630214286</v>
       </c>
       <c r="O25">
         <v>4.218394999999995</v>
@@ -6191,7 +6191,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH25">
-        <v>0.1180897868972814</v>
+        <v>0.1180929359723477</v>
       </c>
       <c r="AI25">
         <v>0.02208293163578868</v>
@@ -6349,10 +6349,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M26">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N26">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O26">
         <v>23.23987000000003</v>
@@ -6409,7 +6409,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH26">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI26">
         <v>0.008016055605097107</v>
@@ -6561,10 +6561,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M27">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N27">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O27">
         <v>9.665844285714307</v>
@@ -6621,7 +6621,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH27">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI27">
         <v>0.01773924857940986</v>
@@ -6997,10 +6997,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M29">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N29">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O29">
         <v>13.12014</v>
@@ -7057,7 +7057,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH29">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI29">
         <v>0.009013183653793824</v>
@@ -7651,10 +7651,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M32">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N32">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O32">
         <v>32.27352949640294</v>
@@ -7711,7 +7711,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH32">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI32">
         <v>0.01583865087466659</v>
@@ -8296,10 +8296,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M35">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N35">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O35">
         <v>17.20794028776979</v>
@@ -8356,7 +8356,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH35">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI35">
         <v>0.02361783267959001</v>
@@ -8514,10 +8514,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M36">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N36">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O36">
         <v>23.36329280575536</v>
@@ -8574,7 +8574,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH36">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI36">
         <v>0.02103028753220303</v>
@@ -8944,10 +8944,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M38">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N38">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O38">
         <v>18.9448964028777</v>
@@ -9004,7 +9004,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH38">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI38">
         <v>0.01036593540064324</v>
@@ -9574,10 +9574,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M41">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N41">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O41">
         <v>17.28183884892085</v>
@@ -9634,7 +9634,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH41">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI41">
         <v>0.02339360272038717</v>
@@ -9789,10 +9789,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M42">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N42">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O42">
         <v>10.98003812949643</v>
@@ -9849,7 +9849,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH42">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI42">
         <v>0.01375610463357893</v>
@@ -10007,10 +10007,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M43">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N43">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O43">
         <v>17.49053728813555</v>
@@ -10067,7 +10067,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH43">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI43">
         <v>0.01162614438339173</v>
@@ -10222,10 +10222,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M44">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N44">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O44">
         <v>11.61681223021584</v>
@@ -10282,7 +10282,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH44">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI44">
         <v>0.01575600458797015</v>
@@ -10658,10 +10658,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M46">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N46">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O46">
         <v>50.83380434782609</v>
@@ -10718,7 +10718,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH46">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI46">
         <v>0.012940574695297</v>
@@ -11748,10 +11748,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M51">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N51">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O51">
         <v>4.210901438848916</v>
@@ -11808,7 +11808,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH51">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI51">
         <v>0.02489310667312082</v>
@@ -12620,10 +12620,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M55">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N55">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O55">
         <v>17.4615561151079</v>
@@ -12680,7 +12680,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH55">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI55">
         <v>0.01808998545402635</v>
@@ -12838,10 +12838,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M56">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N56">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O56">
         <v>6.753958992805738</v>
@@ -12898,7 +12898,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH56">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI56">
         <v>0.01802730392923573</v>
@@ -13056,10 +13056,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M57">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N57">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O57">
         <v>2.392374100719419</v>
@@ -13116,7 +13116,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH57">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI57">
         <v>0.01910794237126496</v>
@@ -13710,10 +13710,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M60">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N60">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O60">
         <v>10.90067194244607</v>
@@ -13770,7 +13770,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH60">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI60">
         <v>0.0170158958967595</v>
@@ -14143,10 +14143,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M62">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N62">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O62">
         <v>2.89477625899279</v>
@@ -14203,7 +14203,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH62">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI62">
         <v>0.02174441872123123</v>
@@ -14358,10 +14358,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M63">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N63">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O63">
         <v>8.273093525179856</v>
@@ -14418,7 +14418,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH63">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI63">
         <v>0.01599836014357369</v>
@@ -15872,10 +15872,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M70">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N70">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O70">
         <v>11.70113741007193</v>
@@ -15932,7 +15932,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH70">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI70">
         <v>0.01475158771177243</v>
@@ -16950,10 +16950,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M75">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N75">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O75">
         <v>13.07</v>
@@ -17010,7 +17010,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH75">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI75">
         <v>0.02764894338667259</v>
@@ -17816,10 +17816,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M79">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N79">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O79">
         <v>28.03375899280575</v>
@@ -17876,7 +17876,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH79">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI79">
         <v>0.01711940858936728</v>
@@ -18246,10 +18246,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M81">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N81">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O81">
         <v>29.26468633093515</v>
@@ -18306,7 +18306,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH81">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI81">
         <v>0.017783864147457</v>
@@ -18464,10 +18464,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M82">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N82">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O82">
         <v>32.34487050359709</v>
@@ -18524,7 +18524,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH82">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI82">
         <v>0.01850400579540374</v>
@@ -18682,10 +18682,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M83">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N83">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O83">
         <v>27.49530575539558</v>
@@ -18742,7 +18742,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH83">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI83">
         <v>0.017085366995169</v>
@@ -18900,10 +18900,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M84">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N84">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O84">
         <v>16.06366474820148</v>
@@ -18960,7 +18960,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH84">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI84">
         <v>0.01957569006395855</v>
@@ -19118,10 +19118,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M85">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N85">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O85">
         <v>13.30946115107915</v>
@@ -19178,7 +19178,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH85">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI85">
         <v>0.01520566251803345</v>
@@ -19551,10 +19551,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M87">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N87">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O87">
         <v>7.801798561151083</v>
@@ -19611,7 +19611,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH87">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI87">
         <v>0.01878716295778277</v>
@@ -19987,10 +19987,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M89">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N89">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O89">
         <v>20.1688179856116</v>
@@ -20047,7 +20047,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH89">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI89">
         <v>0.0174731877855319</v>
@@ -20847,10 +20847,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M93">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N93">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O93">
         <v>5.45165467625897</v>
@@ -20907,7 +20907,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH93">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI93">
         <v>0.01916057529072679</v>
@@ -21062,10 +21062,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M94">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N94">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O94">
         <v>30.77843597122299</v>
@@ -21122,7 +21122,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH94">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI94">
         <v>0.01526698441029006</v>
@@ -21274,10 +21274,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M95">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N95">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O95">
         <v>13.56355107913672</v>
@@ -21334,7 +21334,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH95">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI95">
         <v>0.01568402902096873</v>
@@ -21492,10 +21492,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M96">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N96">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O96">
         <v>15.47555971223021</v>
@@ -21552,7 +21552,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH96">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI96">
         <v>0.007772078851418021</v>
@@ -21710,10 +21710,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M97">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N97">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O97">
         <v>17.97587266187051</v>
@@ -21770,7 +21770,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH97">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI97">
         <v>0.0195428517005895</v>
@@ -21928,10 +21928,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M98">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N98">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O98">
         <v>9.062915827338117</v>
@@ -21988,7 +21988,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH98">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI98">
         <v>0.02020890646668658</v>
@@ -23015,10 +23015,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M103">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N103">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O103">
         <v>10.97913812949643</v>
@@ -23075,7 +23075,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH103">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI103">
         <v>0.01325642094905325</v>
@@ -23448,10 +23448,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M105">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N105">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O105">
         <v>17.45106949152538</v>
@@ -23508,7 +23508,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH105">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI105">
         <v>0.01341478198083662</v>
@@ -23663,10 +23663,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M106">
-        <v>929.8662000000002</v>
+        <v>929.6994000000001</v>
       </c>
       <c r="N106">
-        <v>834.2988669064779</v>
+        <v>834.2976669064777</v>
       </c>
       <c r="O106">
         <v>56.39535971223021</v>
@@ -23723,7 +23723,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH106">
-        <v>0.1145480796922083</v>
+        <v>0.1143497541438248</v>
       </c>
       <c r="AI106">
         <v>0.03469051806032562</v>
@@ -23881,10 +23881,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M107">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N107">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O107">
         <v>11.70144172661869</v>
@@ -23941,7 +23941,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH107">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI107">
         <v>0.01326585532781815</v>
@@ -24099,10 +24099,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M108">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N108">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O108">
         <v>16.5028784172662</v>
@@ -24159,7 +24159,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH108">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI108">
         <v>0.01910602021524699</v>
@@ -24750,10 +24750,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M111">
-        <v>929.8662000000002</v>
+        <v>929.6994000000001</v>
       </c>
       <c r="N111">
-        <v>834.2988669064779</v>
+        <v>834.2976669064777</v>
       </c>
       <c r="O111">
         <v>5.441510791366884</v>
@@ -24810,7 +24810,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH111">
-        <v>0.1145480796922083</v>
+        <v>0.1143497541438248</v>
       </c>
       <c r="AI111">
         <v>0.02087758687391553</v>
@@ -25183,10 +25183,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M113">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N113">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O113">
         <v>16.03943309352522</v>
@@ -25243,7 +25243,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH113">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI113">
         <v>0.02184291781573381</v>
@@ -25619,10 +25619,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M115">
-        <v>929.8662000000002</v>
+        <v>929.6994000000001</v>
       </c>
       <c r="N115">
-        <v>834.2988669064779</v>
+        <v>834.2976669064777</v>
       </c>
       <c r="O115">
         <v>29.30282661870493</v>
@@ -25679,7 +25679,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH115">
-        <v>0.1145480796922083</v>
+        <v>0.1143497541438248</v>
       </c>
       <c r="AI115">
         <v>0.02047188621656508</v>
@@ -26485,10 +26485,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M119">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N119">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O119">
         <v>13.07388201438849</v>
@@ -26545,7 +26545,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH119">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI119">
         <v>0.008672751864715465</v>
@@ -26703,10 +26703,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M120">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N120">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O120">
         <v>14.22118776978415</v>
@@ -26763,7 +26763,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH120">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI120">
         <v>0.01636171444861157</v>
@@ -26921,10 +26921,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M121">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N121">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O121">
         <v>23.33878129496399</v>
@@ -26981,7 +26981,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH121">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI121">
         <v>0.02230000077610742</v>
@@ -28011,10 +28011,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M126">
-        <v>929.8662000000002</v>
+        <v>929.6994000000001</v>
       </c>
       <c r="N126">
-        <v>834.2988669064779</v>
+        <v>834.2976669064777</v>
       </c>
       <c r="O126">
         <v>10.91697697841729</v>
@@ -28071,7 +28071,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH126">
-        <v>0.1145480796922083</v>
+        <v>0.1143497541438248</v>
       </c>
       <c r="AI126">
         <v>0.01929854922895746</v>
@@ -28444,10 +28444,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M128">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N128">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O128">
         <v>2.884378417266171</v>
@@ -28504,7 +28504,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH128">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI128">
         <v>0.0247107824956988</v>
@@ -28659,10 +28659,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M129">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N129">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O129">
         <v>8.269280575539568</v>
@@ -28719,7 +28719,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH129">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI129">
         <v>0.0152685143074154</v>
@@ -29092,10 +29092,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M131">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N131">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O131">
         <v>12.20009712230219</v>
@@ -29152,7 +29152,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH131">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI131">
         <v>0.01550882512661773</v>
@@ -30833,10 +30833,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M139">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N139">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O139">
         <v>22.91445755395684</v>
@@ -30893,7 +30893,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH139">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI139">
         <v>0.02069687378086291</v>
